--- a/output.xlsx
+++ b/output.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Epoch</t>
-  </si>
-  <si>
-    <t>Epoch:1 || epochiter: 0/14|| Totel iter 0 || Loss: 7.5532||Batch time: 2.1648 sec. ||LR: 0.10000000</t>
   </si>
 </sst>
 </file>
@@ -377,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -388,11 +385,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
